--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2015091.399077987</v>
+        <v>-2017365.419205423</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7230781.015117384</v>
+        <v>7230781.015117381</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>121.0674098501734</v>
+        <v>361.6872321969256</v>
       </c>
       <c r="G2" t="n">
-        <v>14.04590347118615</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.0217950910657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794427</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097598</v>
+        <v>180.3799638097597</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5940585367451</v>
+        <v>217.594058536745</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>328.1771352390796</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7408432413276</v>
+        <v>99.1346735079358</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.2437637269483</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.4059850665348</v>
+        <v>58.40598506653463</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.192419416944</v>
       </c>
       <c r="T3" t="n">
         <v>197.4542208317152</v>
       </c>
       <c r="U3" t="n">
-        <v>139.6370083202365</v>
+        <v>225.8971409297816</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>10.93882415771397</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2147226037219</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.4962987703073</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5367433600327</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>169.3188507415852</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>7.797962285516598</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>348.5248721840098</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>50.15905275328323</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1023,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>155.4526127311941</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>253.0077412860072</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>298.7744291072159</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>127.990722067552</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75769145492754</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>51.06561173382016</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890336</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>92.51650598212447</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>171.9731989154908</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>141.5576683533122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095777</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47758125341774</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888065</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>57.22579106484434</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572899</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335029</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958331</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="42">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128494</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.3330334156589</v>
+        <v>962.6796922721096</v>
       </c>
       <c r="C2" t="n">
-        <v>184.3705164752471</v>
+        <v>962.6796922721096</v>
       </c>
       <c r="D2" t="n">
-        <v>184.3705164752471</v>
+        <v>962.6796922721096</v>
       </c>
       <c r="E2" t="n">
-        <v>184.3705164752471</v>
+        <v>576.8914396738653</v>
       </c>
       <c r="F2" t="n">
-        <v>62.08020349527401</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="G2" t="n">
-        <v>47.8924222112476</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8924222112476</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="I2" t="n">
-        <v>47.8924222112476</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034131</v>
+        <v>141.6681220034138</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971209</v>
+        <v>402.9583913971219</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883408</v>
+        <v>779.3887029883426</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462592</v>
+        <v>1214.846500462595</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811274</v>
+        <v>1642.718462811278</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006093</v>
+        <v>2001.558186006098</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794927</v>
+        <v>2270.145204794932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.62111056238</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="R2" t="n">
-        <v>2394.62111056238</v>
+        <v>2322.985235382644</v>
       </c>
       <c r="S2" t="n">
-        <v>2212.419126916158</v>
+        <v>2140.783251736422</v>
       </c>
       <c r="T2" t="n">
-        <v>1992.627148596213</v>
+        <v>1920.991273416478</v>
       </c>
       <c r="U2" t="n">
-        <v>1992.627148596213</v>
+        <v>1667.20833787676</v>
       </c>
       <c r="V2" t="n">
-        <v>1661.564261252643</v>
+        <v>1336.145450533189</v>
       </c>
       <c r="W2" t="n">
-        <v>1330.072205455592</v>
+        <v>1336.145450533189</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.072205455592</v>
+        <v>962.6796922721096</v>
       </c>
       <c r="Y2" t="n">
-        <v>939.9328734797807</v>
+        <v>962.6796922721096</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.9123740376518</v>
+        <v>673.9805033038306</v>
       </c>
       <c r="C3" t="n">
-        <v>747.4593447565248</v>
+        <v>499.5274740227036</v>
       </c>
       <c r="D3" t="n">
-        <v>598.5249350952736</v>
+        <v>499.5274740227036</v>
       </c>
       <c r="E3" t="n">
-        <v>439.2874800898181</v>
+        <v>499.5274740227036</v>
       </c>
       <c r="F3" t="n">
-        <v>292.7529221167031</v>
+        <v>352.9929160495885</v>
       </c>
       <c r="G3" t="n">
-        <v>154.7013547782452</v>
+        <v>214.9413487111307</v>
       </c>
       <c r="H3" t="n">
-        <v>47.8924222112476</v>
+        <v>114.8053148647309</v>
       </c>
       <c r="I3" t="n">
-        <v>47.8924222112476</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="J3" t="n">
-        <v>110.0512068966008</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="K3" t="n">
-        <v>342.9113135442388</v>
+        <v>280.7525288588861</v>
       </c>
       <c r="L3" t="n">
-        <v>717.4248599408243</v>
+        <v>516.6368228394556</v>
       </c>
       <c r="M3" t="n">
-        <v>1206.443725563167</v>
+        <v>1005.6556884618</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.112478824942</v>
+        <v>1523.324441723575</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907023</v>
+        <v>1930.474537907028</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403383</v>
+        <v>2240.245317403388</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.62111056238</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050728</v>
+        <v>2335.625166050735</v>
       </c>
       <c r="S3" t="n">
-        <v>2335.625166050728</v>
+        <v>2174.824742397256</v>
       </c>
       <c r="T3" t="n">
-        <v>2136.176458139905</v>
+        <v>1975.376034486432</v>
       </c>
       <c r="U3" t="n">
-        <v>1995.128974988151</v>
+        <v>1747.19710425433</v>
       </c>
       <c r="V3" t="n">
-        <v>1759.976866756408</v>
+        <v>1512.044996022587</v>
       </c>
       <c r="W3" t="n">
-        <v>1505.739510028206</v>
+        <v>1257.807639294385</v>
       </c>
       <c r="X3" t="n">
-        <v>1297.888009822674</v>
+        <v>1049.956139088853</v>
       </c>
       <c r="Y3" t="n">
-        <v>1090.12771105772</v>
+        <v>842.1958403238987</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357.6397409301801</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="C4" t="n">
-        <v>346.5904235991559</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="D4" t="n">
-        <v>346.5904235991559</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="E4" t="n">
-        <v>346.5904235991559</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="F4" t="n">
-        <v>346.5904235991559</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="G4" t="n">
-        <v>346.5904235991559</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="H4" t="n">
-        <v>187.7876734943863</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="I4" t="n">
-        <v>47.8924222112476</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="J4" t="n">
-        <v>47.8924222112476</v>
+        <v>47.89242221124771</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000069</v>
+        <v>90.69073642000106</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663077</v>
+        <v>200.9842782663084</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420737</v>
+        <v>327.6624769420748</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148792</v>
+        <v>456.7631676148806</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890142</v>
+        <v>559.9922554890159</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124544</v>
+        <v>624.8018913124564</v>
       </c>
       <c r="Q4" t="n">
-        <v>585.4546332130415</v>
+        <v>624.8018913124564</v>
       </c>
       <c r="R4" t="n">
-        <v>585.4546332130415</v>
+        <v>624.8018913124564</v>
       </c>
       <c r="S4" t="n">
-        <v>585.4546332130415</v>
+        <v>408.4467587860347</v>
       </c>
       <c r="T4" t="n">
-        <v>357.6397409301801</v>
+        <v>408.4467587860347</v>
       </c>
       <c r="U4" t="n">
-        <v>357.6397409301801</v>
+        <v>237.4176166228173</v>
       </c>
       <c r="V4" t="n">
-        <v>357.6397409301801</v>
+        <v>229.5408870414874</v>
       </c>
       <c r="W4" t="n">
-        <v>357.6397409301801</v>
+        <v>229.5408870414874</v>
       </c>
       <c r="X4" t="n">
-        <v>357.6397409301801</v>
+        <v>229.5408870414874</v>
       </c>
       <c r="Y4" t="n">
-        <v>357.6397409301801</v>
+        <v>229.5408870414874</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2415.277204011084</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2161.515418649176</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2161.515418649176</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1808.746763379062</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.746763379062</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4671,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4753,16 +4753,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>843.3415311720269</v>
+        <v>1834.613306652565</v>
       </c>
       <c r="C8" t="n">
-        <v>843.3415311720269</v>
+        <v>1465.650789712153</v>
       </c>
       <c r="D8" t="n">
-        <v>843.3415311720269</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>843.3415311720269</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>836.3960304228234</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.08070321196</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.941371236149</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,16 +4887,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>352.226339726024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>352.226339726024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>183.2265394643564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>298.7494956772322</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>953.4728278125317</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5066,19 +5066,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.811212990069</v>
+        <v>171.0738540998364</v>
       </c>
       <c r="C13" t="n">
-        <v>612.8750300621621</v>
+        <v>171.0738540998364</v>
       </c>
       <c r="D13" t="n">
-        <v>462.7583906498263</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>314.8452970674332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>314.8452970674332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>147.1424604421522</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>391.8664332433665</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4596778203087</v>
+        <v>171.0738540998364</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5264,7 +5264,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>387.79385975162</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>721.6132334414665</v>
+        <v>864.5728002389885</v>
       </c>
       <c r="L14" t="n">
-        <v>1172.647446689875</v>
+        <v>1729.091615892343</v>
       </c>
       <c r="M14" t="n">
-        <v>2151.197749519704</v>
+        <v>2707.641918722172</v>
       </c>
       <c r="N14" t="n">
-        <v>3130.950021746351</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5312,16 +5312,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.859557377715</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>656.9233744498081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1773.061992718672</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1551.295377288198</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1262.192510413842</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1007.508022207955</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1007.508022207955</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1007.508022207955</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y16" t="n">
-        <v>1007.508022207955</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5516,22 +5516,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5595,7 +5595,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>679.6423705955727</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>510.7061876676659</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5701,22 +5701,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1310.07296546736</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1310.07296546736</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.083414569342</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>861.2908354258125</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888352</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O20" t="n">
-        <v>3554.371154826471</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4267.726242273417</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
         <v>95.56103444839442</v>
@@ -5947,13 +5947,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.715908442899</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>3163.468180669545</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>3666.440651548882</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193584</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0738540998329</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C25" t="n">
-        <v>171.0738540998329</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>171.0738540998329</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6184,13 +6184,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998329</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>348.082974081076</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1002.806306216376</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.840519464784</v>
+        <v>1296.118160724479</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>289.6715157207256</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>944.3948478560251</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1395.429061104434</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2373.979363934262</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.758180993045</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6491,16 +6491,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>171.0738540998329</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C31" t="n">
-        <v>171.0738540998329</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>171.0738540998329</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1808.709179503803</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998329</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H34" t="n">
         <v>145.4370786819758</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7059,7 +7059,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257036</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1339.011402386887</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7208,13 +7208,13 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805549</v>
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>1092.155029011367</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1543.189242259776</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2076.7211469317</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N41" t="n">
-        <v>2623.499963990483</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O41" t="n">
-        <v>3126.47243486982</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3521.246801226998</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982173</v>
@@ -7591,7 +7591,7 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
         <v>2127.355355052752</v>
@@ -7600,19 +7600,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668888</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1394.992678104633</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468334</v>
@@ -7688,10 +7688,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,10 +7722,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
         <v>413.0883853676538</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257046</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415476</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643398</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>63.30438414308214</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>230.8107974084929</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>191.046120184435</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>14.45386895940638</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>104.3976710547476</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>79.70465870845368</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>353.7642348290863</v>
+        <v>146.0713065388582</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.0727796301213</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P23" t="n">
-        <v>201.3549853008794</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>64.28566532692543</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>60.01894884691984</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.284192235662317</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>446.3172993264869</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>287.0017854473913</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>105.7385611944685</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.3902622431544</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>19.4031160254645</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>167.7369666428364</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>285.8086358915381</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.04590347118615</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.50046549375605</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>116.9694273885025</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>73.85778156328482</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>93.68940318050062</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314406</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>97.25251934931742</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>46.61145443660399</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>110.5799749705158</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>92.48912964370379</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>91.26811680410418</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>132.2320741356194</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>73.85778156328831</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.6633565680072</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>132.5432342665976</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-6.272760216817893e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1337174.289901329</v>
+        <v>1337174.289901328</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1338138.82215026</v>
+        <v>1338138.822150261</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1338138.822150261</v>
+        <v>1338138.82215026</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1338138.822150261</v>
+        <v>1338138.82215026</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1338138.82215026</v>
+        <v>1338138.822150261</v>
       </c>
     </row>
     <row r="11">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76788.97449895649</v>
+        <v>76788.97449895641</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
         <v>79416.35737739662</v>
       </c>
       <c r="F2" t="n">
-        <v>79416.35737739661</v>
+        <v>79416.35737739662</v>
       </c>
       <c r="G2" t="n">
+        <v>79416.35737739659</v>
+      </c>
+      <c r="H2" t="n">
         <v>79416.35737739662</v>
-      </c>
-      <c r="H2" t="n">
-        <v>79416.35737739661</v>
       </c>
       <c r="I2" t="n">
         <v>79416.35737739662</v>
@@ -26338,22 +26338,22 @@
         <v>79416.35737739659</v>
       </c>
       <c r="K2" t="n">
-        <v>79416.35737739661</v>
+        <v>79416.35737739662</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642828</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771923</v>
+        <v>501884.681477194</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904434</v>
+        <v>83720.31263904271</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629958</v>
+        <v>156634.5614629962</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848983</v>
+        <v>19465.25531848945</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950531</v>
+        <v>84741.61795950525</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203100.1933923131</v>
+        <v>203100.1933923126</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,16 +26424,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
@@ -26442,19 +26442,19 @@
         <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="L4" t="n">
-        <v>44019.0003311148</v>
+        <v>44019.00033111481</v>
       </c>
       <c r="M4" t="n">
-        <v>64344.18042540622</v>
+        <v>64344.18042540623</v>
       </c>
       <c r="N4" t="n">
         <v>64344.18042540622</v>
       </c>
       <c r="O4" t="n">
-        <v>64344.18042540622</v>
+        <v>64344.18042540619</v>
       </c>
       <c r="P4" t="n">
         <v>64344.18042540622</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237206</v>
+        <v>76841.33769237218</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26482,31 +26482,31 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705037.238062921</v>
+        <v>-705170.118125109</v>
       </c>
       <c r="C6" t="n">
-        <v>-294397.6291790588</v>
+        <v>-294397.6291790571</v>
       </c>
       <c r="D6" t="n">
-        <v>-210677.3165400145</v>
+        <v>-210677.3165400144</v>
       </c>
       <c r="E6" t="n">
-        <v>-772906.4142226194</v>
+        <v>-772973.6097128452</v>
       </c>
       <c r="F6" t="n">
-        <v>-45529.0002292128</v>
+        <v>-45596.19571943858</v>
       </c>
       <c r="G6" t="n">
-        <v>-45529.00022921275</v>
+        <v>-45596.19571943853</v>
       </c>
       <c r="H6" t="n">
-        <v>-45529.00022921279</v>
+        <v>-45596.19571943857</v>
       </c>
       <c r="I6" t="n">
-        <v>-45529.00022921279</v>
+        <v>-45596.19571943857</v>
       </c>
       <c r="J6" t="n">
-        <v>-202163.5616922086</v>
+        <v>-202230.7571824348</v>
       </c>
       <c r="K6" t="n">
-        <v>-64994.25554770259</v>
+        <v>-65061.451037928</v>
       </c>
       <c r="L6" t="n">
-        <v>-99827.60365366258</v>
+        <v>-99827.60365366269</v>
       </c>
       <c r="M6" t="n">
-        <v>-156359.5630732894</v>
+        <v>-156359.5630732892</v>
       </c>
       <c r="N6" t="n">
         <v>-71617.94511378402</v>
       </c>
       <c r="O6" t="n">
-        <v>-71617.94511378401</v>
+        <v>-71617.94511378395</v>
       </c>
       <c r="P6" t="n">
-        <v>-71617.94511378402</v>
+        <v>-71617.94511378405</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322889</v>
+        <v>312.6374684322901</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405949</v>
+        <v>598.6552776405964</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322889</v>
+        <v>312.6374684322901</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479776</v>
+        <v>65.1061957847965</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405949</v>
+        <v>598.6552776405964</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511396067</v>
+        <v>75.63199511395919</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405949</v>
+        <v>598.6552776405964</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396067</v>
+        <v>75.63199511395919</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540589</v>
+        <v>340.0491884540587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405949</v>
+        <v>598.6552776405964</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396067</v>
+        <v>75.63199511395919</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>45.18881354478583</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6032504631755</v>
+        <v>326.6032504631754</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910659</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794459</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>21.06383347833338</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.606169733391766</v>
       </c>
       <c r="I3" t="n">
-        <v>66.2437637269484</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.192419416944</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>86.26013260954508</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>156.3079969409139</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375622</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.95378551841858</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121515</v>
+        <v>151.9441304121513</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011575</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2882781300877</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>244.3396810383114</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>34.20896947947074</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>166.2892676043746</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>131.0703856053969</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>101.6753003346758</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>115.0097409135791</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>28.18016677424313</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>15.4236932637327</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-3.774407299222456e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>3.534950110406498e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948899</v>
+        <v>1.256834043948904</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259167</v>
+        <v>12.87155165259172</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447933998</v>
+        <v>48.45409447934017</v>
       </c>
       <c r="J2" t="n">
-        <v>106.672218437608</v>
+        <v>106.6722184376084</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179649</v>
+        <v>159.8740035179655</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904661</v>
+        <v>198.3378383904669</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195423</v>
+        <v>220.6890608195432</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469121</v>
+        <v>224.260040546913</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223952</v>
+        <v>211.7623970223961</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624067</v>
+        <v>180.7343065624075</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634868</v>
+        <v>135.7239373634873</v>
       </c>
       <c r="R2" t="n">
-        <v>78.9496015132051</v>
+        <v>78.94960151320541</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648557</v>
+        <v>28.64010577648568</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386308</v>
+        <v>5.50179102738633</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159119</v>
+        <v>0.1005467235159123</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373761</v>
+        <v>0.6724654981373788</v>
       </c>
       <c r="H3" t="n">
-        <v>6.49460099516887</v>
+        <v>6.494600995168896</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446668</v>
+        <v>23.15286912446677</v>
       </c>
       <c r="J3" t="n">
-        <v>63.5332425235843</v>
+        <v>63.53324252358455</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987885</v>
+        <v>108.5884308987889</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881176</v>
+        <v>146.0105459881181</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955974</v>
+        <v>170.3874202955981</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072292</v>
+        <v>174.8970683072299</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853432</v>
+        <v>159.9966485853438</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434434</v>
+        <v>128.4114160434439</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522016</v>
+        <v>85.8396309552205</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610833</v>
+        <v>41.7518490861085</v>
       </c>
       <c r="S3" t="n">
-        <v>12.4907516868938</v>
+        <v>12.49075168689385</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106352</v>
+        <v>2.710507863106363</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324844</v>
+        <v>0.04424115119324862</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582258</v>
+        <v>0.563772484058228</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717684</v>
+        <v>5.012449903717703</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695101</v>
+        <v>16.95417615695108</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291656</v>
+        <v>39.85871462291672</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876476</v>
+        <v>65.50011223876503</v>
       </c>
       <c r="L4" t="n">
-        <v>83.8175927662566</v>
+        <v>83.81759276625694</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832715</v>
+        <v>88.3738994783275</v>
       </c>
       <c r="N4" t="n">
-        <v>86.2725656741102</v>
+        <v>86.27256567411054</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801942998</v>
+        <v>79.6866780194303</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464211</v>
+        <v>68.18571934464239</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327562</v>
+        <v>47.20825773327581</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501804</v>
+        <v>25.34926096501814</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814713</v>
+        <v>9.825016835814752</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248782</v>
+        <v>2.408846068248792</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317599</v>
+        <v>0.03075122640317611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32084,10 +32084,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32315,10 +32315,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34211,13 +34211,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34445,10 +34445,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299545</v>
+        <v>94.72292908299588</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441491</v>
+        <v>263.9295650441497</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709293</v>
+        <v>380.2326379709301</v>
       </c>
       <c r="M2" t="n">
-        <v>439.856361085102</v>
+        <v>439.8563610851029</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623054</v>
+        <v>432.1939013623062</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634538</v>
+        <v>362.4643668634547</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786198</v>
+        <v>271.3000189786206</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.733238148942</v>
+        <v>125.7332381489425</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.78665119732644</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370081</v>
+        <v>235.2122289370085</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117025</v>
+        <v>238.2669636167368</v>
       </c>
       <c r="M3" t="n">
-        <v>493.958450123579</v>
+        <v>493.9584501235797</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674495</v>
+        <v>522.8977305674501</v>
       </c>
       <c r="O3" t="n">
-        <v>208.4465243253337</v>
+        <v>411.2627234176289</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690503</v>
+        <v>312.8997772690508</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.9351446050478</v>
+        <v>155.9351446050481</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.2306204128819</v>
+        <v>43.23062041288217</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265727</v>
+        <v>111.4076180265731</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401677</v>
+        <v>127.9577764401681</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4047380533388</v>
+        <v>130.4047380533391</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334697</v>
+        <v>104.27180593347</v>
       </c>
       <c r="P4" t="n">
-        <v>65.4642786095356</v>
+        <v>65.46427860953588</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>205.2408699281189</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,13 +35422,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>295.1846720234602</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>416.8959452638542</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35884,13 +35884,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>892.685350659313</v>
+        <v>684.9924223690849</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35899,10 +35899,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35963,10 +35963,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>455.8670844338408</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36370,13 +36370,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P23" t="n">
-        <v>600.1169715202512</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.072666295638</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>515.609063239252</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36613,10 +36613,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.0711932043749</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>797.5422943919199</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>985.2384151567137</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>742.5918998397235</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,28 +37780,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>613.7915620826876</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>416.1845670468738</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -37941,10 +37941,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>474.9932304177967</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>418.5312714465559</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597722</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
